--- a/data/Common_gene_information_of_16_species.xlsx
+++ b/data/Common_gene_information_of_16_species.xlsx
@@ -16,73 +16,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>Caenorhabditis elegans</t>
+  </si>
+  <si>
+    <t>Sus scrofa</t>
+  </si>
+  <si>
+    <t>Bos taurus</t>
+  </si>
+  <si>
+    <t>Gallus gallus</t>
+  </si>
+  <si>
+    <t>Zea mays</t>
+  </si>
+  <si>
+    <t>Oryza sativa</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>Glycine max</t>
+  </si>
+  <si>
+    <t>Xenopus laevis</t>
+  </si>
+  <si>
+    <t>物种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋白编码基因数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共有基因详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHGDH, PGK1, FBP1, MRPS16, OXA1L, TALDO1, SHMT1, PPIB, PGM1, NFS1, HSPA9, PUS1, GUK1, COX10, FARSB, ETFA, SAMM50, GFPT1, ST20-MTHFS, PGD, PNPO, SRM, TPI1, MRPS11, GFM2, BCAT1, MRPS10, PYGB, ADSL, MRPS14, PPAT, SORD, MRPL32, NIT1, UGP2, HSP90AA1, DLD, HSPD1, IMPDH1, REXO2, GALM, IDH1, MTRF1L, ENO1, PGS1, GBE1, YRDC, PARS2, MRPS15, AK7, MSRA, DTYMK, ACO1, MRPL4, KARS1, GLRX, ELAC1, PSPH, MAT2B, ACSL1, MPST, RARS2, IARS1, DTD2, ACSS2, TARS3, SRP54, CARS2, DLAT, MRPL30, AARS1, XYLB, ADH5, GPD2, MTIF2, RPIA, ATP7A, CTPS1, APRT, ITPA, MRPS7, FH, ESD, FECH, TRIT1, GALE, SOD2, EIF1, GALT, AMT, MRPS17, ADSS1, PKM, MARS1, IDI1, PFKL, HAGH, HSCB, PLPBP, GPI, GSTO2, MRRF, RPE, MRPL10, METAP2, NAPRT, AASDHPPT, CDA, MRPS18C, MRPL15, GAD1, MCAT, TKT, MRPL13, NARS1, ATIC, CAT, PUS7, LARS2, FARS2, PISD, MRPL19, VARS2, SARS2, CS, GAPDH, GLUL, GK, GMPS, GTPBP3, MRPL33, PFAS, GCH1, LIAS, SOD1, NME6, CDS1, MTO1, EARS2, OXSM, DARS2, PSAT1, ABCF3, OGDH, WARS2, XPNPEP3, YARS2, ACAT1, NADK2, PYCR2, TATDN3, TXN2, RBKS, MRPL1, MRPL3, ASNS, BPNT1, MRPL24, MRPL17, QARS1, GLDC, MRPS9, MRPL28, MRPS2, DLST, CLPX, PRPS1L1, HARS2, GCSH, GRPEL2, MRPL12, AMD1, UCKL1, MPI, HSPE1, PDXK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macaca mulatta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>osa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>Mus musculus</t>
-  </si>
-  <si>
-    <t>Rattus norvegicus</t>
-  </si>
-  <si>
-    <t>Drosophila melanogaster</t>
-  </si>
-  <si>
-    <t>Arabidopsis thaliana</t>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae</t>
-  </si>
-  <si>
-    <t>Macaca mulatta</t>
-  </si>
-  <si>
-    <t>Caenorhabditis elegans</t>
-  </si>
-  <si>
-    <t>Sus scrofa</t>
-  </si>
-  <si>
-    <t>Bos taurus</t>
-  </si>
-  <si>
-    <t>Gallus gallus</t>
-  </si>
-  <si>
-    <t>Zea mays</t>
-  </si>
-  <si>
-    <t>Oryza sativa</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Glycine max</t>
-  </si>
-  <si>
-    <t>Xenopus laevis</t>
-  </si>
-  <si>
-    <t>物种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋白编码基因数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共有的同源基因数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共有基因详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHGDH, PGK1, FBP1, MRPS16, OXA1L, TALDO1, SHMT1, PPIB, PGM1, NFS1, HSPA9, PUS1, GUK1, COX10, FARSB, ETFA, SAMM50, GFPT1, ST20-MTHFS, PGD, PNPO, SRM, TPI1, MRPS11, GFM2, BCAT1, MRPS10, PYGB, ADSL, MRPS14, PPAT, SORD, MRPL32, NIT1, UGP2, HSP90AA1, DLD, HSPD1, IMPDH1, REXO2, GALM, IDH1, MTRF1L, ENO1, PGS1, GBE1, YRDC, PARS2, MRPS15, AK7, MSRA, DTYMK, ACO1, MRPL4, KARS1, GLRX, ELAC1, PSPH, MAT2B, ACSL1, MPST, RARS2, IARS1, DTD2, ACSS2, TARS3, SRP54, CARS2, DLAT, MRPL30, AARS1, XYLB, ADH5, GPD2, MTIF2, RPIA, ATP7A, CTPS1, APRT, ITPA, MRPS7, FH, ESD, FECH, TRIT1, GALE, SOD2, EIF1, GALT, AMT, MRPS17, ADSS1, PKM, MARS1, IDI1, PFKL, HAGH, HSCB, PLPBP, GPI, GSTO2, MRRF, RPE, MRPL10, METAP2, NAPRT, AASDHPPT, CDA, MRPS18C, MRPL15, GAD1, MCAT, TKT, MRPL13, NARS1, ATIC, CAT, PUS7, LARS2, FARS2, PISD, MRPL19, VARS2, SARS2, CS, GAPDH, GLUL, GK, GMPS, GTPBP3, MRPL33, PFAS, GCH1, LIAS, SOD1, NME6, CDS1, MTO1, EARS2, OXSM, DARS2, PSAT1, ABCF3, OGDH, WARS2, XPNPEP3, YARS2, ACAT1, NADK2, PYCR2, TATDN3, TXN2, RBKS, MRPL1, MRPL3, ASNS, BPNT1, MRPL24, MRPL17, QARS1, GLDC, MRPS9, MRPL28, MRPS2, DLST, CLPX, PRPS1L1, HARS2, GCSH, GRPEL2, MRPL12, AMD1, UCKL1, MPI, HSPE1, PDXK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共有的基因数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +220,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +230,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFBDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,27 +328,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -291,6 +354,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,231 +665,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="4">
+        <v>20619</v>
+      </c>
+      <c r="D2" s="12">
+        <v>176</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <v>22292</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>22229</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="4">
+        <v>13968</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="8">
+        <v>27562</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6017</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4">
         <v>21121</v>
       </c>
-      <c r="C2" s="6">
-        <v>176</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>20619</v>
-      </c>
-      <c r="C3" s="6">
-        <v>176</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>22229</v>
-      </c>
-      <c r="C4" s="6">
-        <v>176</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
-        <v>22292</v>
-      </c>
-      <c r="C5" s="6">
-        <v>176</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4">
+        <v>19984</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20666</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
         <v>20981</v>
       </c>
-      <c r="C6" s="6">
-        <v>176</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>20666</v>
-      </c>
-      <c r="C7" s="6">
-        <v>176</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4">
         <v>17478</v>
       </c>
-      <c r="C8" s="6">
-        <v>176</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8">
+        <v>34177</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8">
+        <v>28073</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5">
+        <v>5449</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7">
+        <v>47065</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6">
         <v>34476</v>
       </c>
-      <c r="C9" s="6">
-        <v>176</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>19984</v>
-      </c>
-      <c r="C10" s="6">
-        <v>176</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>13968</v>
-      </c>
-      <c r="C11" s="6">
-        <v>176</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>6017</v>
-      </c>
-      <c r="C12" s="6">
-        <v>176</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <v>47065</v>
-      </c>
-      <c r="C13" s="6">
-        <v>176</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9">
-        <v>27562</v>
-      </c>
-      <c r="C14" s="6">
-        <v>176</v>
-      </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9">
-        <v>28073</v>
-      </c>
-      <c r="C15" s="6">
-        <v>176</v>
-      </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
-        <v>34177</v>
-      </c>
-      <c r="C16" s="6">
-        <v>176</v>
-      </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6">
-        <v>5449</v>
-      </c>
-      <c r="C17" s="6">
-        <v>176</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="E2:E17"/>
     <mergeCell ref="D2:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
